--- a/09-01-24 to 09-07-24 Milwaukee Schedule.xlsx
+++ b/09-01-24 to 09-07-24 Milwaukee Schedule.xlsx
@@ -992,7 +992,11 @@
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>5:15 am meet for Grafton crew</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1040,21 +1044,9 @@
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
@@ -1095,15 +1087,19 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1164,15 +1160,20 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>(Driver),
+Trainer</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1238,12 +1239,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1303,12 +1304,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1376,12 +1377,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1455,17 +1456,18 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ethan</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Rx (1st Rx)</t>
+          <t>1st Scan,
+work w/ Carlie</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -1528,19 +1530,15 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1549,10 +1547,15 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>2nd Scan,
+work w/ Lashaun</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
@@ -1601,15 +1604,19 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Rx (1st Rx)</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
@@ -1618,15 +1625,10 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
@@ -1663,17 +1665,18 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>1st Scan,
+work w/ Stephanie</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -1684,10 +1687,16 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima
+Trainer</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
@@ -1736,15 +1745,19 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Robyn</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -1753,7 +1766,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1805,12 +1818,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1822,7 +1835,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1862,15 +1875,19 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
@@ -1879,7 +1896,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -1919,19 +1936,15 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Robyn</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
@@ -1940,14 +1953,10 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
@@ -1986,8 +1995,16 @@
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
@@ -1997,7 +2014,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2043,13 +2060,37 @@
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
@@ -2088,13 +2129,21 @@
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
@@ -2139,19 +2188,11 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
@@ -2193,17 +2234,13 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>AURORA OUTPATIENT RX #1105, BROOKFIELD</t>
-        </is>
-      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2248,7 +2285,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>16985 W BLUEMOUND - SUITE 100</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2256,7 +2293,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1017, WAUWATOSA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2297,7 +2334,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/jH8mU5GKz9qMkuhD8</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2305,7 +2342,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>1220 DEWEY AVENUE</t>
+          <t>AURORA OUTPATIENT RX #1017, WAUWATOSA</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2344,13 +2381,17 @@
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>AURORA OUTPATIENT RX #1105, BROOKFIELD</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9FX8iZxiZbN2</t>
+          <t>1220 DEWEY AVENUE</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2384,24 +2425,20 @@
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>16985 W BLUEMOUND - SUITE 100</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/9FX8iZxiZbN2</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
@@ -2429,33 +2466,17 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>https://goo.gl/maps/jH8mU5GKz9qMkuhD8</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
@@ -2488,15 +2509,19 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
@@ -2527,12 +2552,32 @@
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2564,10 +2609,14 @@
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2602,11 +2651,7 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>EXCEL FINANCIAL</t>
-        </is>
-      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
@@ -2639,11 +2684,7 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>DAYBREAK, DELAFIELD</t>
-        </is>
-      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
@@ -2674,7 +2715,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>622 GENESEE ST</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2720,7 +2761,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dNtyDnuiw6J2</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2759,7 +2800,11 @@
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>DAYBREAK, DELAFIELD</t>
+        </is>
+      </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
@@ -2787,21 +2832,13 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Gold Camry available, Equip</t>
-        </is>
-      </c>
+          <t>622 GENESEE ST</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
@@ -2828,14 +2865,10 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>https://goo.gl/maps/dNtyDnuiw6J2</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -2902,9 +2935,21 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Gold Camry available, Equip</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -2935,8 +2980,16 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>

--- a/09-01-24 to 09-07-24 Milwaukee Schedule.xlsx
+++ b/09-01-24 to 09-07-24 Milwaukee Schedule.xlsx
@@ -1693,7 +1693,7 @@
       <c r="S24" t="inlineStr">
         <is>
           <t>Driver,
-Optima
+Optima,
 Trainer</t>
         </is>
       </c>

--- a/09-01-24 to 09-07-24 Milwaukee Schedule.xlsx
+++ b/09-01-24 to 09-07-24 Milwaukee Schedule.xlsx
@@ -550,24 +550,64 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bag 7, SB 11</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bag 1, SB 11</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -583,16 +623,40 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 5, SB 10</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 7, SB 11</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 1, SB 11</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>

--- a/09-01-24 to 09-07-24 Milwaukee Schedule.xlsx
+++ b/09-01-24 to 09-07-24 Milwaukee Schedule.xlsx
@@ -1803,7 +1803,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Gold Camry, Equip</t>
+          <t>White Camry, Equip</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>

--- a/09-01-24 to 09-07-24 Milwaukee Schedule.xlsx
+++ b/09-01-24 to 09-07-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA71"/>
+  <dimension ref="A1:AA73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1232,12 +1232,7 @@
           <t>Carlie</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>(Driver),
-Trainer</t>
-        </is>
-      </c>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1525,15 +1520,10 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Ethan</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>1st Scan,
-work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1599,10 +1589,14 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Rx (1st Rx)</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1673,12 +1667,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Rx (1st Rx)</t>
+          <t>After Aurora</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -1734,15 +1728,10 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>1st Scan,
-work w/ Stephanie</t>
-        </is>
-      </c>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
@@ -1814,12 +1803,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>After Aurora</t>
+          <t>Supv Rx</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -1887,7 +1876,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1944,14 +1933,10 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
@@ -1972,7 +1957,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -2005,7 +1990,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -2029,7 +2014,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -2066,10 +2051,14 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2094,12 +2083,13 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X29" t="inlineStr"/>
@@ -2124,21 +2114,9 @@
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2163,7 +2141,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -2193,21 +2171,9 @@
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
@@ -2220,13 +2186,12 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx (1st Rx)</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -2252,7 +2217,11 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -2266,13 +2235,13 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Rx (1st Rx)</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -2298,7 +2267,11 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -2316,12 +2289,13 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Scan</t>
         </is>
       </c>
       <c r="X33" t="inlineStr"/>
@@ -2349,7 +2323,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>AURORA OUTPATIENT RX #1105, BROOKFIELD</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2369,12 +2343,13 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="X34" t="inlineStr"/>
@@ -2398,7 +2373,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>16985 W BLUEMOUND - SUITE 100</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2411,9 +2386,21 @@
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>20)</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
@@ -2447,7 +2434,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1105, BROOKFIELD</t>
+          <t>https://goo.gl/maps/jH8mU5GKz9qMkuhD8</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2460,9 +2447,21 @@
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>21)</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
@@ -2490,11 +2489,7 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>16985 W BLUEMOUND - SUITE 100</t>
-        </is>
-      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
@@ -2506,11 +2501,7 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5:30 AM MEET COLLEGE (SOUTHWEST) </t>
-        </is>
-      </c>
+      <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2530,24 +2521,28 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/jH8mU5GKz9qMkuhD8</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2567,8 +2562,16 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
@@ -2590,7 +2593,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t xml:space="preserve">5:30 AM MEET COLLEGE (SOUTHWEST) </t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2616,21 +2619,9 @@
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
@@ -2647,7 +2638,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1070, RACINE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2673,16 +2664,8 @@
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
@@ -2692,7 +2675,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>8400 WASHINGTON AVENUE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2715,7 +2698,11 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
@@ -2725,7 +2712,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WsqKM5J2Bo42</t>
+          <t>AURORA OUTPATIENT RX #1070, RACINE</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2748,7 +2735,11 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>EXCEL FINANCIAL</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
@@ -2756,7 +2747,11 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>8400 WASHINGTON AVENUE</t>
+        </is>
+      </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
@@ -2779,7 +2774,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DAYBREAK, DELAFIELD</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2788,22 +2783,13 @@
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Euqip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/WsqKM5J2Bo42</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
@@ -2825,7 +2811,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>622 GENESEE ST</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2834,16 +2820,8 @@
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -2866,7 +2844,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>DAYBREAK, DELAFIELD</t>
+          <t>https://goo.gl/maps/dNtyDnuiw6J2</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2875,9 +2853,22 @@
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Euqip</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
@@ -2897,19 +2888,23 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>622 GENESEE ST</t>
-        </is>
-      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -2929,24 +2924,28 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dNtyDnuiw6J2</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Gold Camry available, Equip</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>4:00 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
@@ -2966,8 +2965,16 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
@@ -2975,11 +2982,7 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -2999,21 +3002,9 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Gold Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -3022,7 +3013,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>4:00 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3044,16 +3035,8 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
@@ -3063,7 +3046,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>FESTIVAL #2691, WESTON - LIFO</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3096,7 +3079,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>6205 BUSINESS HWY 51</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3129,7 +3112,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6QpvpLFDTrh8njoi9</t>
+          <t>FESTIVAL #2691, WESTON - LIFO</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -3160,7 +3143,11 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>6205 BUSINESS HWY 51</t>
+        </is>
+      </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
@@ -3188,21 +3175,13 @@
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/6QpvpLFDTrh8njoi9</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
@@ -3229,22 +3208,9 @@
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
@@ -3273,15 +3239,19 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr"/>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
@@ -3310,15 +3280,20 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr"/>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
@@ -3347,12 +3322,12 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3384,12 +3359,12 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3421,19 +3396,15 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Jacqui</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
@@ -3462,19 +3433,15 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+          <t>Robyn</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
@@ -3503,12 +3470,12 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -3544,12 +3511,12 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -3585,17 +3552,17 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>Driver, pick up Trevor</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="X65" t="inlineStr"/>
@@ -3626,12 +3593,12 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -3667,17 +3634,17 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>meet Michelle 6am @ Point Target</t>
+          <t>Driver, pick up Trevor</t>
         </is>
       </c>
       <c r="X67" t="inlineStr"/>
@@ -3706,9 +3673,21 @@
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
@@ -3735,9 +3714,21 @@
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>meet Michelle 6am @ Point Target</t>
+        </is>
+      </c>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr"/>
@@ -3765,11 +3756,7 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
@@ -3798,17 +3785,79 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
     </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/09-01-24 to 09-07-24 Milwaukee Schedule.xlsx
+++ b/09-01-24 to 09-07-24 Milwaukee Schedule.xlsx
@@ -2067,12 +2067,13 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Keshawn</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+1st Day</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2125,12 +2126,13 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Keshawn</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
@@ -2175,9 +2177,21 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
@@ -2275,11 +2289,7 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
@@ -2331,7 +2341,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2381,7 +2391,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1017, WAUWATOSA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2442,7 +2452,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>1220 DEWEY AVENUE</t>
+          <t>AURORA OUTPATIENT RX #1017, WAUWATOSA</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2495,7 +2505,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9FX8iZxiZbN2</t>
+          <t>1220 DEWEY AVENUE</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2538,7 +2548,11 @@
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/9FX8iZxiZbN2</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
@@ -2574,21 +2588,9 @@
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
@@ -2625,15 +2627,19 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
@@ -2668,8 +2674,16 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
